--- a/biology/Zoologie/Beregama_aurea/Beregama_aurea.xlsx
+++ b/biology/Zoologie/Beregama_aurea/Beregama_aurea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Beregama aurea est une espèce d'araignées aranéomorphes de la famille des Sparassidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Beregama aurea est une espèce d'araignées aranéomorphes de la famille des Sparassidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Australie[1]. Elle se rencontre au Queensland et en Nouvelle-Galles du Sud.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Australie. Elle se rencontre au Queensland et en Nouvelle-Galles du Sud.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle décrit par Hirst en 1990 mesure 14,5 mm de long sur 13,5 mm et l'abdomen 13,8 mm de long sur 10,2 mm et la carapace de la femelle mesure 17,2 mm de long sur 17,4 mm et l'abdomen 24,0 mm de long sur 21,0 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle décrit par Hirst en 1990 mesure 14,5 mm de long sur 13,5 mm et l'abdomen 13,8 mm de long sur 10,2 mm et la carapace de la femelle mesure 17,2 mm de long sur 17,4 mm et l'abdomen 24,0 mm de long sur 21,0 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>L. Koch, 1875 : Die Arachniden Australiens. Nürnberg, vol. 1, p. 577-740 (texte intégral).</t>
         </is>
